--- a/PROJ2/covid19_knn_regressor_example.xlsx
+++ b/PROJ2/covid19_knn_regressor_example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="179">
   <si>
     <t>Days Passed</t>
   </si>
@@ -40,490 +40,517 @@
     <t>Recovered Actual</t>
   </si>
   <si>
+    <t>Xinjiang / China</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Nova Scotia / Canada</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Reunion / France</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Hebei / China</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Saskatchewan / Canada</t>
+  </si>
+  <si>
+    <t>Quebec / Canada</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Qinghai / China</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Hong Kong / China</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Congo (Brazzaville)</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Henan / China</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands / United Kingdom</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guangxi / China</t>
+  </si>
+  <si>
+    <t>Cayman Islands / United Kingdom</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Jiangxi / China</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Saint Barthelemy / France</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Yunnan / China</t>
+  </si>
+  <si>
+    <t>New South Wales / Australia</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>British Virgin Islands / United Kingdom</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Yukon / Canada</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Isle of Man / United Kingdom</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Liaoning / China</t>
+  </si>
+  <si>
+    <t>Queensland / Australia</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Shanxi / China</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Montserrat / United Kingdom</t>
+  </si>
+  <si>
+    <t>Sichuan / China</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Western Australia / Australia</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Taiwan*</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>New Brunswick / Canada</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Shaanxi / China</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Northern Territory / Australia</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Jiangsu / China</t>
+  </si>
+  <si>
+    <t>Fujian / China</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Zhejiang / China</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gansu / China</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Curacao / Netherlands</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Anguilla / United Kingdom</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Shandong / China</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Shanghai / China</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Northwest Territories / Canada</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Aruba / Netherlands</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Alberta / Canada</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>New Caledonia / France</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Gibraltar / United Kingdom</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Hunan / China</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Tasmania / Australia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>West Bank and Gaza</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
     <t>Guadeloupe / France</t>
   </si>
   <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Montserrat / United Kingdom</t>
-  </si>
-  <si>
     <t>Israel</t>
   </si>
   <si>
-    <t>Northern Territory / Australia</t>
-  </si>
-  <si>
-    <t>Newfoundland and Labrador / Canada</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Jilin / China</t>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>French Polynesia / France</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
   </si>
   <si>
     <t>Manitoba / Canada</t>
   </si>
   <si>
-    <t>Martinique / France</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Nova Scotia / Canada</t>
-  </si>
-  <si>
-    <t>New South Wales / Australia</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Saint Barthelemy / France</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Yukon / Canada</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Shandong / China</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Malvinas) / United Kingdom</t>
-  </si>
-  <si>
-    <t>Shaanxi / China</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Xinjiang / China</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Czechia</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Yunnan / China</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Hebei / China</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>West Bank and Gaza</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Western Australia / Australia</t>
-  </si>
-  <si>
-    <t>Anguilla / United Kingdom</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Taiwan*</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Liaoning / China</t>
-  </si>
-  <si>
-    <t>Tasmania / Australia</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Guangdong / China</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Russia</t>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
   </si>
   <si>
     <t>South Australia / Australia</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Quebec / Canada</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Qinghai / China</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>New Brunswick / Canada</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Inner Mongolia / China</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Alberta / Canada</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Ningxia / China</t>
-  </si>
-  <si>
-    <t>Tibet / China</t>
-  </si>
-  <si>
-    <t>Henan / China</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Jiangxi / China</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Sichuan / China</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Northwest Territories / Canada</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Burma</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Aruba / Netherlands</t>
-  </si>
-  <si>
-    <t>Channel Islands / United Kingdom</t>
-  </si>
-  <si>
-    <t>Jiangsu / China</t>
-  </si>
-  <si>
-    <t>Guangxi / China</t>
-  </si>
-  <si>
-    <t>Reunion / France</t>
-  </si>
-  <si>
-    <t>Beijing / China</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Faroe Islands / Denmark</t>
-  </si>
-  <si>
-    <t>French Guiana / France</t>
-  </si>
-  <si>
-    <t>St Martin / France</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Congo (Brazzaville)</t>
-  </si>
-  <si>
-    <t>Australian Capital Territory / Australia</t>
-  </si>
-  <si>
-    <t>Victoria / Australia</t>
-  </si>
-  <si>
-    <t>Bermuda / United Kingdom</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Sint Maarten / Netherlands</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Hubei / China</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Cuba</t>
   </si>
 </sst>
 </file>
@@ -918,28 +945,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -947,28 +974,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -976,28 +1003,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1005,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1034,19 +1061,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1063,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1092,28 +1119,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1121,28 +1148,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9">
-        <v>330</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>367</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1179,22 +1206,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1208,16 +1235,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1237,13 +1264,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1266,28 +1293,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1295,28 +1322,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4426</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>4534</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1147</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1324,28 +1351,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1353,28 +1380,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1382,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1400,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1411,28 +1438,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1440,16 +1467,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1469,28 +1496,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>2968</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2936</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1689</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1498,28 +1525,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>387</v>
+        <v>276</v>
       </c>
       <c r="E22">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="F22">
         <v>4</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1527,16 +1554,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1545,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1556,16 +1583,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1585,28 +1612,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1614,16 +1641,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1632,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1649,22 +1676,22 @@
         <v>32</v>
       </c>
       <c r="D27">
-        <v>1358</v>
+        <v>44</v>
       </c>
       <c r="E27">
-        <v>1352</v>
+        <v>81</v>
       </c>
       <c r="F27">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1672,7 +1699,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -1701,22 +1728,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="E29">
-        <v>16</v>
+        <v>422</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1730,13 +1757,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1759,13 +1786,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1777,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1788,28 +1815,28 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>7980</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>8446</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1817,16 +1844,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1846,7 +1873,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
         <v>38</v>
@@ -1875,16 +1902,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1893,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1904,28 +1931,28 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1933,25 +1960,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
         <v>41</v>
       </c>
       <c r="D37">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="E37">
-        <v>259</v>
+        <v>66</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I37">
         <v>7</v>
@@ -1962,28 +1989,28 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1991,28 +2018,28 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
         <v>43</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>969</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>935</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>934</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2020,28 +2047,28 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
       </c>
       <c r="D40">
-        <v>12</v>
+        <v>634</v>
       </c>
       <c r="E40">
-        <v>12</v>
+        <v>1694</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I40">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2049,28 +2076,28 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
         <v>45</v>
       </c>
       <c r="D41">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2078,16 +2105,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
         <v>46</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2107,7 +2134,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
         <v>47</v>
@@ -2116,19 +2143,19 @@
         <v>66</v>
       </c>
       <c r="E43">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2136,28 +2163,28 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2165,22 +2192,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2194,28 +2221,28 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
       </c>
       <c r="D46">
-        <v>76</v>
+        <v>3028</v>
       </c>
       <c r="E46">
-        <v>76</v>
+        <v>3035</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H46">
-        <v>27</v>
+        <v>2301</v>
       </c>
       <c r="I46">
-        <v>25</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2223,28 +2250,28 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
       </c>
       <c r="D47">
-        <v>4724</v>
+        <v>33</v>
       </c>
       <c r="E47">
-        <v>4817</v>
+        <v>25</v>
       </c>
       <c r="F47">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>2212</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>2276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2252,16 +2279,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
       </c>
       <c r="D48">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2281,28 +2308,28 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
       </c>
       <c r="D49">
-        <v>1290</v>
+        <v>25142</v>
       </c>
       <c r="E49">
-        <v>1399</v>
+        <v>25190</v>
       </c>
       <c r="F49">
-        <v>40</v>
+        <v>1015</v>
       </c>
       <c r="G49">
-        <v>45</v>
+        <v>1023</v>
       </c>
       <c r="H49">
-        <v>554</v>
+        <v>1608</v>
       </c>
       <c r="I49">
-        <v>594</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2310,16 +2337,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
       </c>
       <c r="D50">
-        <v>357</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2339,28 +2366,28 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
         <v>54</v>
       </c>
       <c r="D51">
-        <v>852</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2368,13 +2395,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2397,28 +2424,28 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
         <v>56</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2426,28 +2453,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="E54">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2455,10 +2482,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2484,16 +2511,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2513,28 +2540,28 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D57">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="E57">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>122</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2542,25 +2569,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D58">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2571,28 +2598,28 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D59">
-        <v>96003</v>
+        <v>87</v>
       </c>
       <c r="E59">
-        <v>96448</v>
+        <v>105</v>
       </c>
       <c r="F59">
-        <v>6112</v>
+        <v>6</v>
       </c>
       <c r="G59">
-        <v>6156</v>
+        <v>8</v>
       </c>
       <c r="H59">
-        <v>76603</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>77350</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2600,28 +2627,28 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D60">
-        <v>241</v>
+        <v>1694</v>
       </c>
       <c r="E60">
-        <v>241</v>
+        <v>2013</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2629,28 +2656,28 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D61">
-        <v>528</v>
+        <v>152</v>
       </c>
       <c r="E61">
-        <v>316</v>
+        <v>150</v>
       </c>
       <c r="F61">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="I61">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2658,28 +2685,28 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2687,16 +2714,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D63">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2705,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2716,28 +2743,28 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D64">
-        <v>1213</v>
+        <v>253</v>
       </c>
       <c r="E64">
-        <v>1283</v>
+        <v>252</v>
       </c>
       <c r="F64">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G64">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>398</v>
+        <v>245</v>
       </c>
       <c r="I64">
-        <v>460</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2745,28 +2772,28 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D65">
-        <v>5909</v>
+        <v>30</v>
       </c>
       <c r="E65">
-        <v>5955</v>
+        <v>29</v>
       </c>
       <c r="F65">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2774,10 +2801,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2803,13 +2830,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2832,28 +2859,28 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D68">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2861,10 +2888,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2890,28 +2917,28 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2919,28 +2946,28 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
         <v>70</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2948,25 +2975,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
         <v>71</v>
       </c>
       <c r="D72">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2977,16 +3004,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
         <v>72</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2995,10 +3022,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3006,16 +3033,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
         <v>73</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3024,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3035,28 +3062,28 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
         <v>74</v>
       </c>
       <c r="D75">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3064,28 +3091,28 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
         <v>75</v>
       </c>
       <c r="D76">
-        <v>7626</v>
+        <v>513</v>
       </c>
       <c r="E76">
-        <v>7695</v>
+        <v>508</v>
       </c>
       <c r="F76">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="G76">
-        <v>370</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>4555</v>
+        <v>190</v>
       </c>
       <c r="I76">
-        <v>4700</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3093,22 +3120,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D77">
-        <v>7048</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>7033</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3122,28 +3149,28 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3151,28 +3178,28 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D79">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3180,25 +3207,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3209,28 +3236,28 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D81">
-        <v>335</v>
+        <v>8</v>
       </c>
       <c r="E81">
-        <v>367</v>
+        <v>10</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3238,28 +3265,28 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D82">
-        <v>122</v>
+        <v>4007</v>
       </c>
       <c r="E82">
-        <v>121</v>
+        <v>4268</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="H82">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="I82">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3267,28 +3294,28 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>392</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3296,28 +3323,28 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D84">
-        <v>581</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3325,16 +3352,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3354,28 +3381,28 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>433</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>431</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3383,28 +3410,28 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D87">
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>1467</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>1342</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3412,16 +3439,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D88">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3441,28 +3468,28 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3470,10 +3497,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3499,16 +3526,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3517,10 +3544,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3528,16 +3555,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -3557,28 +3584,28 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D93">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3586,16 +3613,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3615,28 +3642,28 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>18257</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>17851</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1871</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1766</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3644,28 +3671,28 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>633</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3673,28 +3700,28 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="D97">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="E97">
-        <v>54</v>
+        <v>322</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>295</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3702,25 +3729,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C98" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="D98">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -3731,28 +3758,28 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D99">
-        <v>6765</v>
+        <v>638</v>
       </c>
       <c r="E99">
-        <v>6879</v>
+        <v>724</v>
       </c>
       <c r="F99">
-        <v>315</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>2947</v>
+        <v>39</v>
       </c>
       <c r="I99">
-        <v>3023</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3760,16 +3787,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C100" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D100">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="E100">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -3778,10 +3805,10 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3789,28 +3816,28 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D101">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="E101">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101">
         <v>2</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3818,28 +3845,28 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D102">
-        <v>140856</v>
+        <v>214767</v>
       </c>
       <c r="E102">
-        <v>139422</v>
+        <v>218011</v>
       </c>
       <c r="F102">
-        <v>17736</v>
+        <v>24745</v>
       </c>
       <c r="G102">
-        <v>17669</v>
+        <v>25428</v>
       </c>
       <c r="H102">
-        <v>27691</v>
+        <v>113840</v>
       </c>
       <c r="I102">
-        <v>26491</v>
+        <v>121343</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3847,28 +3874,28 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C103" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>2715</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>2733</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1742</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3876,22 +3903,22 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3905,22 +3932,22 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3934,28 +3961,28 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C106" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>766</v>
       </c>
       <c r="E106">
-        <v>6</v>
+        <v>802</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3963,16 +3990,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3981,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3992,28 +4019,28 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C108" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D108">
-        <v>68</v>
+        <v>453</v>
       </c>
       <c r="E108">
-        <v>88</v>
+        <v>430</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G108">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H108">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I108">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4021,10 +4048,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -4050,28 +4077,28 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D110">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4079,10 +4106,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -4108,28 +4135,28 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C112" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D112">
-        <v>227</v>
+        <v>2933</v>
       </c>
       <c r="E112">
-        <v>228</v>
+        <v>2938</v>
       </c>
       <c r="F112">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G112">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="H112">
-        <v>85</v>
+        <v>2620</v>
       </c>
       <c r="I112">
-        <v>85</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4137,28 +4164,28 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C113" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="D113">
-        <v>3681</v>
+        <v>2820</v>
       </c>
       <c r="E113">
-        <v>3771</v>
+        <v>2378</v>
       </c>
       <c r="F113">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="G113">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="H113">
-        <v>1050</v>
+        <v>335</v>
       </c>
       <c r="I113">
-        <v>1114</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4166,10 +4193,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C114" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -4195,16 +4222,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C115" t="s">
         <v>99</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -4213,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4224,28 +4251,28 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4253,28 +4280,28 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D117">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4282,28 +4309,28 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D118">
-        <v>9334</v>
+        <v>39</v>
       </c>
       <c r="E118">
-        <v>9407</v>
+        <v>39</v>
       </c>
       <c r="F118">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>475</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>6744</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>6889</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4311,28 +4338,28 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="C119" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D119">
-        <v>35</v>
+        <v>1585</v>
       </c>
       <c r="E119">
-        <v>34</v>
+        <v>1486</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="H119">
-        <v>7</v>
+        <v>658</v>
       </c>
       <c r="I119">
-        <v>6</v>
+        <v>592</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4340,10 +4367,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C120" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -4369,25 +4396,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C121" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -4398,28 +4425,28 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C122" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D122">
-        <v>438</v>
+        <v>10</v>
       </c>
       <c r="E122">
-        <v>438</v>
+        <v>4</v>
       </c>
       <c r="F122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4427,10 +4454,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -4456,28 +4483,28 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C124" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="D124">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="E124">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4485,28 +4512,28 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C125" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4514,25 +4541,25 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C126" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D126">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -4543,28 +4570,28 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C127" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D127">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4572,10 +4599,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -4601,28 +4628,28 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C129" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D129">
-        <v>151</v>
+        <v>1879</v>
       </c>
       <c r="E129">
-        <v>249</v>
+        <v>1825</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="H129">
-        <v>10</v>
+        <v>527</v>
       </c>
       <c r="I129">
-        <v>14</v>
+        <v>460</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4630,16 +4657,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -4648,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4659,16 +4686,16 @@
         <v>129</v>
       </c>
       <c r="B131">
+        <v>62</v>
+      </c>
+      <c r="C131" t="s">
+        <v>116</v>
+      </c>
+      <c r="D131">
         <v>17</v>
       </c>
-      <c r="C131" t="s">
-        <v>107</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
       <c r="E131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -4677,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -4688,10 +4715,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -4717,22 +4744,22 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C133" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D133">
-        <v>35</v>
+        <v>484</v>
       </c>
       <c r="E133">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -4749,25 +4776,25 @@
         <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4775,28 +4802,28 @@
         <v>133</v>
       </c>
       <c r="B135">
+        <v>72</v>
+      </c>
+      <c r="C135" t="s">
+        <v>120</v>
+      </c>
+      <c r="D135">
+        <v>455</v>
+      </c>
+      <c r="E135">
+        <v>464</v>
+      </c>
+      <c r="F135">
         <v>4</v>
       </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
       <c r="G135">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4804,28 +4831,28 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C136" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D136">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E136">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4833,10 +4860,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -4862,28 +4889,28 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D138">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4891,28 +4918,28 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>1377</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>1320</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4920,16 +4947,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C140" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4938,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -4949,28 +4976,28 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D141">
-        <v>97715</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>101739</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>11451</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>11591</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>15849</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>14620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4978,28 +5005,28 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C142" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D142">
-        <v>1071</v>
+        <v>11</v>
       </c>
       <c r="E142">
-        <v>1275</v>
+        <v>11</v>
       </c>
       <c r="F142">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5007,10 +5034,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C143" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5036,10 +5063,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -5065,16 +5092,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -5094,16 +5121,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C146" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D146">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -5112,10 +5139,10 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5123,28 +5150,28 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C147" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D147">
-        <v>2593</v>
+        <v>355</v>
       </c>
       <c r="E147">
-        <v>2613</v>
+        <v>355</v>
       </c>
       <c r="F147">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>1347</v>
+        <v>341</v>
       </c>
       <c r="I147">
-        <v>1405</v>
+        <v>339</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5152,16 +5179,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D148">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -5181,28 +5208,28 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D149">
-        <v>4551</v>
+        <v>9</v>
       </c>
       <c r="E149">
-        <v>4641</v>
+        <v>12</v>
       </c>
       <c r="F149">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5210,16 +5237,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C150" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -5228,10 +5255,10 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5239,16 +5266,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="D151">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -5257,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -5268,28 +5295,28 @@
         <v>150</v>
       </c>
       <c r="B152">
+        <v>28</v>
+      </c>
+      <c r="C152" t="s">
+        <v>130</v>
+      </c>
+      <c r="D152">
+        <v>80</v>
+      </c>
+      <c r="E152">
+        <v>31</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>13</v>
+      </c>
+      <c r="I152">
         <v>12</v>
-      </c>
-      <c r="C152" t="s">
-        <v>77</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5297,16 +5324,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C153" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D153">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -5315,10 +5342,10 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5326,28 +5353,28 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C154" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D154">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5355,28 +5382,28 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C155" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D155">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5384,28 +5411,28 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C156" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="D156">
-        <v>60</v>
+        <v>1931</v>
       </c>
       <c r="E156">
-        <v>30</v>
+        <v>1995</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>367</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5413,16 +5440,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -5431,10 +5458,10 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5442,28 +5469,28 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C158" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D158">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="E158">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="F158">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G158">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5471,28 +5498,28 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D159">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5500,13 +5527,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C160" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -5529,16 +5556,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C161" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -5547,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -5558,28 +5585,28 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C162" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>4571</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>4648</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>197</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5587,28 +5614,28 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C163" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="D163">
-        <v>416</v>
+        <v>4</v>
       </c>
       <c r="E163">
-        <v>415</v>
+        <v>9</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5616,10 +5643,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -5645,22 +5672,22 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C165" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D165">
-        <v>58</v>
+        <v>390</v>
       </c>
       <c r="E165">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="F165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G165">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -5674,28 +5701,28 @@
         <v>164</v>
       </c>
       <c r="B166">
+        <v>94</v>
+      </c>
+      <c r="C166" t="s">
+        <v>140</v>
+      </c>
+      <c r="D166">
+        <v>46</v>
+      </c>
+      <c r="E166">
         <v>11</v>
       </c>
-      <c r="C166" t="s">
-        <v>126</v>
-      </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5703,13 +5730,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C167" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -5732,13 +5759,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C168" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -5761,28 +5788,28 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="C169" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D169">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>1574</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>1043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5790,16 +5817,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C170" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E170">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -5808,10 +5835,10 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5819,28 +5846,28 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C171" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5848,16 +5875,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C172" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -5866,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -5877,16 +5904,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C173" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -5906,28 +5933,28 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C174" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D174">
-        <v>17</v>
+        <v>7846</v>
       </c>
       <c r="E174">
-        <v>14</v>
+        <v>8274</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="H174">
-        <v>6</v>
+        <v>1172</v>
       </c>
       <c r="I174">
-        <v>11</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5935,28 +5962,28 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="C175" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>4226</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>4295</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5964,13 +5991,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C176" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -5993,28 +6020,28 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C177" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="D177">
-        <v>535</v>
+        <v>82</v>
       </c>
       <c r="E177">
-        <v>400</v>
+        <v>88</v>
       </c>
       <c r="F177">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="I177">
-        <v>154</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6022,28 +6049,28 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C178" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="D178">
-        <v>50</v>
+        <v>4536</v>
       </c>
       <c r="E178">
-        <v>100</v>
+        <v>4681</v>
       </c>
       <c r="F178">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="G178">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="H178">
-        <v>36</v>
+        <v>1383</v>
       </c>
       <c r="I178">
-        <v>73</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6051,28 +6078,28 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C179" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="D179">
-        <v>3590</v>
+        <v>11</v>
       </c>
       <c r="E179">
-        <v>3659</v>
+        <v>10</v>
       </c>
       <c r="F179">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>901</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>935</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6080,10 +6107,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -6109,28 +6136,28 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D181">
-        <v>794</v>
+        <v>0</v>
       </c>
       <c r="E181">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6138,28 +6165,28 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C182" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D182">
-        <v>254</v>
+        <v>554</v>
       </c>
       <c r="E182">
-        <v>254</v>
+        <v>663</v>
       </c>
       <c r="F182">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G182">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H182">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c r="I182">
-        <v>252</v>
+        <v>86</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6167,28 +6194,28 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C183" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D183">
-        <v>546</v>
+        <v>396</v>
       </c>
       <c r="E183">
-        <v>539</v>
+        <v>279</v>
       </c>
       <c r="F183">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G183">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>442</v>
+        <v>81</v>
       </c>
       <c r="I183">
-        <v>425</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6196,28 +6223,28 @@
         <v>182</v>
       </c>
       <c r="B184">
+        <v>51</v>
+      </c>
+      <c r="C184" t="s">
+        <v>43</v>
+      </c>
+      <c r="D184">
+        <v>969</v>
+      </c>
+      <c r="E184">
+        <v>935</v>
+      </c>
+      <c r="F184">
         <v>3</v>
       </c>
-      <c r="C184" t="s">
-        <v>39</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
       <c r="G184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>961</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>934</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6225,28 +6252,28 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D185">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185">
         <v>0</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6254,25 +6281,25 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C186" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G186">
         <v>0</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -6283,10 +6310,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C187" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -6312,28 +6339,28 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C188" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D188">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6341,16 +6368,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C189" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D189">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="E189">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -6359,10 +6386,10 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6370,28 +6397,28 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="C190" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D190">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="E190">
-        <v>1490</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6399,28 +6426,28 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D191">
-        <v>20003</v>
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>21506</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1141</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>1303</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>13372</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>13386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6428,10 +6455,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C192" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -6457,28 +6484,28 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C193" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>1784</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1785</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6486,28 +6513,28 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C194" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D194">
-        <v>24</v>
+        <v>4619</v>
       </c>
       <c r="E194">
-        <v>23</v>
+        <v>4903</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>1181</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6515,28 +6542,28 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C195" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D195">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="E195">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6544,16 +6571,16 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="C196" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D196">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E196">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -6562,10 +6589,10 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6573,28 +6600,28 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C197" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D197">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="E197">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H197">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="I197">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6602,28 +6629,28 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C198" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D198">
-        <v>187</v>
+        <v>3564</v>
       </c>
       <c r="E198">
-        <v>187</v>
+        <v>3700</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H198">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I198">
-        <v>184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6631,16 +6658,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C199" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -6649,10 +6676,10 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6660,28 +6687,28 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C200" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="D200">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E200">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H200">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I200">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6689,13 +6716,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C201" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -6718,28 +6745,28 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C202" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="D202">
-        <v>608</v>
+        <v>777</v>
       </c>
       <c r="E202">
-        <v>322</v>
+        <v>793</v>
       </c>
       <c r="F202">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G202">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H202">
-        <v>233</v>
+        <v>2</v>
       </c>
       <c r="I202">
-        <v>203</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6747,16 +6774,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="D203">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E203">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -6776,28 +6803,28 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C204" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6805,28 +6832,28 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C205" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="D205">
-        <v>1276</v>
+        <v>6069</v>
       </c>
       <c r="E205">
-        <v>1276</v>
+        <v>6356</v>
       </c>
       <c r="F205">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="G205">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6834,28 +6861,28 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C206" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="D206">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="E206">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="F206">
         <v>5</v>
       </c>
       <c r="G206">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H206">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="I206">
-        <v>15</v>
+        <v>154</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -6863,10 +6890,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C207" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -6892,28 +6919,28 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C208" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D208">
-        <v>768</v>
+        <v>6</v>
       </c>
       <c r="E208">
-        <v>790</v>
+        <v>3</v>
       </c>
       <c r="F208">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G208">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6921,28 +6948,28 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C209" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D209">
-        <v>1045</v>
+        <v>177052</v>
       </c>
       <c r="E209">
-        <v>1098</v>
+        <v>177644</v>
       </c>
       <c r="F209">
-        <v>13</v>
+        <v>18468</v>
       </c>
       <c r="G209">
-        <v>11</v>
+        <v>18708</v>
       </c>
       <c r="H209">
-        <v>214</v>
+        <v>68844</v>
       </c>
       <c r="I209">
-        <v>250</v>
+        <v>70853</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -6950,28 +6977,28 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C210" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="D210">
-        <v>3651</v>
+        <v>213</v>
       </c>
       <c r="E210">
-        <v>3607</v>
+        <v>247</v>
       </c>
       <c r="F210">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="G210">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="H210">
-        <v>1014</v>
+        <v>206</v>
       </c>
       <c r="I210">
-        <v>976</v>
+        <v>237</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -6979,28 +7006,28 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C211" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E211">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7008,28 +7035,28 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C212" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D212">
-        <v>17929</v>
+        <v>2</v>
       </c>
       <c r="E212">
-        <v>20941</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>4478</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>5635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7037,28 +7064,28 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C213" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D213">
-        <v>474</v>
+        <v>138</v>
       </c>
       <c r="E213">
-        <v>442</v>
+        <v>138</v>
       </c>
       <c r="F213">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G213">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="I213">
-        <v>39</v>
+        <v>115</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7066,28 +7093,28 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C214" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="D214">
-        <v>433</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="I214">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7095,10 +7122,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C215" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -7124,28 +7151,28 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C216" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7153,16 +7180,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C217" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -7171,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7182,28 +7209,28 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C218" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="D218">
-        <v>1177</v>
+        <v>0</v>
       </c>
       <c r="E218">
-        <v>1158</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G218">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7211,28 +7238,28 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="C219" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="D219">
-        <v>1912</v>
+        <v>0</v>
       </c>
       <c r="E219">
-        <v>1790</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="G219">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7240,16 +7267,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C220" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -7269,13 +7296,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C221" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -7298,16 +7325,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -7327,28 +7354,28 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C223" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D223">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="E223">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F223">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G223">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -7356,28 +7383,28 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C224" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7385,28 +7412,28 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C225" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="D225">
-        <v>5284</v>
+        <v>0</v>
       </c>
       <c r="E225">
-        <v>5683</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -7414,10 +7441,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C226" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -7443,13 +7470,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C227" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D227">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -7461,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -7472,28 +7499,28 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="C228" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D228">
-        <v>9834</v>
+        <v>0</v>
       </c>
       <c r="E228">
-        <v>9786</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="G228">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>5536</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>5408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7501,10 +7528,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C229" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -7530,28 +7557,28 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C230" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>988</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1386</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7559,28 +7586,28 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="C231" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7588,28 +7615,28 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C232" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="D232">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="E232">
-        <v>17</v>
+        <v>438</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G232">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I232">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7617,16 +7644,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C233" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D233">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -7635,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -7646,22 +7673,22 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="D234">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="E234">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -7675,19 +7702,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C235" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -7704,16 +7731,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C236" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D236">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E236">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -7722,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -7733,28 +7760,28 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="D237">
-        <v>1149</v>
+        <v>0</v>
       </c>
       <c r="E237">
-        <v>1021</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G237">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -7762,10 +7789,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C238" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -7791,10 +7818,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C239" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -7820,28 +7847,28 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C240" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D240">
-        <v>548</v>
+        <v>11131</v>
       </c>
       <c r="E240">
-        <v>675</v>
+        <v>11917</v>
       </c>
       <c r="F240">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="G240">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>795</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -7849,16 +7876,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -7867,10 +7894,10 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -7878,16 +7905,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C242" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D242">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -7896,10 +7923,10 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I242">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -7907,28 +7934,28 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C243" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="D243">
-        <v>67792</v>
+        <v>296</v>
       </c>
       <c r="E243">
-        <v>67790</v>
+        <v>296</v>
       </c>
       <c r="F243">
-        <v>3083</v>
+        <v>1</v>
       </c>
       <c r="G243">
-        <v>3075</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <v>53461</v>
+        <v>259</v>
       </c>
       <c r="I243">
-        <v>52960</v>
+        <v>260</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -7936,10 +7963,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C244" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -7965,16 +7992,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C245" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -7994,16 +8021,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C246" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="D246">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E246">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -8012,10 +8039,10 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -8023,28 +8050,28 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C247" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="D247">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="E247">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G247">
         <v>0</v>
       </c>
       <c r="H247">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -8052,13 +8079,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C248" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -8081,22 +8108,22 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C249" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D249">
-        <v>2</v>
+        <v>39744</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>40770</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>4889</v>
       </c>
       <c r="G249">
-        <v>0</v>
+        <v>5082</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -8110,28 +8137,28 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="C250" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="D250">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="E250">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G250">
         <v>0</v>
       </c>
       <c r="H250">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -8139,28 +8166,28 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C251" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="D251">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E251">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G251">
         <v>0</v>
       </c>
       <c r="H251">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -8168,28 +8195,28 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C252" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>6883</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>6896</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -8197,16 +8224,16 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C253" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -8226,28 +8253,28 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C254" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D254">
-        <v>1443</v>
+        <v>0</v>
       </c>
       <c r="E254">
-        <v>1335</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G254">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="I254">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -8255,28 +8282,28 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C255" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -8284,28 +8311,28 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="C256" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D256">
-        <v>1207</v>
+        <v>0</v>
       </c>
       <c r="E256">
-        <v>1235</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G256">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H256">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="I256">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -8313,16 +8340,16 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C257" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -8331,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -8342,28 +8369,28 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C258" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="D258">
-        <v>27</v>
+        <v>1914</v>
       </c>
       <c r="E258">
-        <v>28</v>
+        <v>1939</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -8371,28 +8398,28 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C259" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="D259">
-        <v>92</v>
+        <v>18672</v>
       </c>
       <c r="E259">
-        <v>93</v>
+        <v>19319</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>939</v>
       </c>
       <c r="H259">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I259">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -8400,16 +8427,16 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C260" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="D260">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -8418,10 +8445,10 @@
         <v>0</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -8429,28 +8456,28 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C261" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D261">
-        <v>4654</v>
+        <v>12</v>
       </c>
       <c r="E261">
-        <v>4450</v>
+        <v>15</v>
       </c>
       <c r="F261">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="G261">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="H261">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="I261">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
